--- a/CS297-TimeTracking.xlsx
+++ b/CS297-TimeTracking.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/OneDrive/LCC/Courses/CS297/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DataCard/Repos/CS297-CourseMaterials/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -127,6 +127,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -398,7 +401,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -485,11 +488,11 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G13" si="0">F5</f>
+        <f>F5+G4</f>
         <v>0</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I5:I13" si="1">H5</f>
+        <f>H5+I4</f>
         <v>0</v>
       </c>
     </row>
@@ -498,11 +501,11 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:C13" si="2">B6+C5</f>
+        <f t="shared" ref="C6:I13" si="0">B6+C5</f>
         <v>0</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E13" si="3">D6+E5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G6">
@@ -510,7 +513,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -519,11 +522,11 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G7">
@@ -531,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -540,11 +543,11 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G8">
@@ -552,7 +555,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -561,11 +564,11 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G9">
@@ -573,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -582,11 +585,11 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G10">
@@ -594,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -603,11 +606,11 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G11">
@@ -615,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -624,11 +627,11 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G12">
@@ -636,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -645,11 +648,11 @@
         <v>9</v>
       </c>
       <c r="C13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G13">
@@ -657,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>

--- a/CS297-TimeTracking.xlsx
+++ b/CS297-TimeTracking.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>Week 1</t>
   </si>
@@ -80,7 +80,10 @@
     <t>Hours</t>
   </si>
   <si>
-    <t>Team:</t>
+    <t>Team Name:</t>
+  </si>
+  <si>
+    <t>Enter the total hours worked both in class and outside of class</t>
   </si>
 </sst>
 </file>
@@ -398,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="200" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -664,6 +667,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CS297-TimeTracking.xlsx
+++ b/CS297-TimeTracking.xlsx
@@ -1,20 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DataCard/Repos/CS297-CourseMaterials/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C3D842-AE65-BB4D-9628-B0FF5862F40A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Totals" sheetId="1" r:id="rId1"/>
+    <sheet name="Week 1" sheetId="3" r:id="rId2"/>
+    <sheet name="Week 2" sheetId="5" r:id="rId3"/>
+    <sheet name="Week 3" sheetId="6" r:id="rId4"/>
+    <sheet name="Week 4" sheetId="7" r:id="rId5"/>
+    <sheet name="Week 5" sheetId="8" r:id="rId6"/>
+    <sheet name="Week 6" sheetId="9" r:id="rId7"/>
+    <sheet name="Week 7" sheetId="10" r:id="rId8"/>
+    <sheet name="Week 8" sheetId="11" r:id="rId9"/>
+    <sheet name="Week 9" sheetId="12" r:id="rId10"/>
+    <sheet name="Week 10" sheetId="13" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="27">
   <si>
     <t>Week 1</t>
   </si>
@@ -59,9 +70,6 @@
     <t>Week 10</t>
   </si>
   <si>
-    <t>Members</t>
-  </si>
-  <si>
     <t>Name 1</t>
   </si>
   <si>
@@ -85,11 +93,38 @@
   <si>
     <t>Enter the total hours worked both in class and outside of class</t>
   </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Enter your team name and member names on this sheet.</t>
+  </si>
+  <si>
+    <t>Enter your hours on the weekly sheets.</t>
+  </si>
+  <si>
+    <t>Members:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -119,8 +154,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,77 +439,95 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="200" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>17</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
+      <c r="B4">
+        <f>'Week 1'!C$9</f>
+        <v>0</v>
+      </c>
       <c r="C4">
         <f>B4</f>
         <v>0</v>
       </c>
+      <c r="D4">
+        <f>'Week 1'!E$9</f>
+        <v>0</v>
+      </c>
       <c r="E4">
         <f>D4</f>
         <v>0</v>
       </c>
+      <c r="F4">
+        <f>'Week 1'!G$9</f>
+        <v>0</v>
+      </c>
       <c r="G4">
         <f>F4</f>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f>'Week 1'!I$9</f>
         <v>0</v>
       </c>
       <c r="I4">
@@ -482,16 +539,32 @@
       <c r="A5" t="s">
         <v>1</v>
       </c>
+      <c r="B5">
+        <f>'Week 2'!C$9</f>
+        <v>0</v>
+      </c>
       <c r="C5">
         <f>B5+C4</f>
         <v>0</v>
       </c>
+      <c r="D5">
+        <f>'Week 2'!E$9</f>
+        <v>0</v>
+      </c>
       <c r="E5">
         <f>D5+E4</f>
         <v>0</v>
       </c>
+      <c r="F5">
+        <f>'Week 2'!G$9</f>
+        <v>0</v>
+      </c>
       <c r="G5">
         <f>F5+G4</f>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f>'Week 2'!I$9</f>
         <v>0</v>
       </c>
       <c r="I5">
@@ -503,16 +576,32 @@
       <c r="A6" t="s">
         <v>2</v>
       </c>
+      <c r="B6">
+        <f>'Week 3'!C$9</f>
+        <v>0</v>
+      </c>
       <c r="C6">
         <f t="shared" ref="C6:I13" si="0">B6+C5</f>
         <v>0</v>
       </c>
+      <c r="D6">
+        <f>'Week 3'!E$9</f>
+        <v>0</v>
+      </c>
       <c r="E6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="F6">
+        <f>'Week 3'!G$9</f>
+        <v>0</v>
+      </c>
       <c r="G6">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f>'Week 3'!I$9</f>
         <v>0</v>
       </c>
       <c r="I6">
@@ -524,16 +613,32 @@
       <c r="A7" t="s">
         <v>3</v>
       </c>
+      <c r="B7">
+        <f>'Week 4'!C$9</f>
+        <v>0</v>
+      </c>
       <c r="C7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="D7">
+        <f>'Week 4'!E$9</f>
+        <v>0</v>
+      </c>
       <c r="E7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="F7">
+        <f>'Week 4'!G$9</f>
+        <v>0</v>
+      </c>
       <c r="G7">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f>'Week 4'!I$9</f>
         <v>0</v>
       </c>
       <c r="I7">
@@ -545,16 +650,32 @@
       <c r="A8" t="s">
         <v>4</v>
       </c>
+      <c r="B8">
+        <f>'Week 5'!C$9</f>
+        <v>0</v>
+      </c>
       <c r="C8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="D8">
+        <f>'Week 5'!E$9</f>
+        <v>0</v>
+      </c>
       <c r="E8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="F8">
+        <f>'Week 5'!G$9</f>
+        <v>0</v>
+      </c>
       <c r="G8">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f>'Week 5'!I$9</f>
         <v>0</v>
       </c>
       <c r="I8">
@@ -566,16 +687,32 @@
       <c r="A9" t="s">
         <v>5</v>
       </c>
+      <c r="B9">
+        <f>'Week 6'!C$9</f>
+        <v>0</v>
+      </c>
       <c r="C9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="D9">
+        <f>'Week 6'!E$9</f>
+        <v>0</v>
+      </c>
       <c r="E9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="F9">
+        <f>'Week 6'!G$9</f>
+        <v>0</v>
+      </c>
       <c r="G9">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f>'Week 6'!I$9</f>
         <v>0</v>
       </c>
       <c r="I9">
@@ -587,16 +724,32 @@
       <c r="A10" t="s">
         <v>6</v>
       </c>
+      <c r="B10">
+        <f>'Week 7'!C$9</f>
+        <v>0</v>
+      </c>
       <c r="C10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="D10">
+        <f>'Week 7'!E$9</f>
+        <v>0</v>
+      </c>
       <c r="E10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="F10">
+        <f>'Week 7'!G$9</f>
+        <v>0</v>
+      </c>
       <c r="G10">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f>'Week 7'!I$9</f>
         <v>0</v>
       </c>
       <c r="I10">
@@ -608,16 +761,32 @@
       <c r="A11" t="s">
         <v>7</v>
       </c>
+      <c r="B11">
+        <f>'Week 8'!C$9</f>
+        <v>0</v>
+      </c>
       <c r="C11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="D11">
+        <f>'Week 8'!E$9</f>
+        <v>0</v>
+      </c>
       <c r="E11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="F11">
+        <f>'Week 8'!G$9</f>
+        <v>0</v>
+      </c>
       <c r="G11">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f>'Week 8'!I$9</f>
         <v>0</v>
       </c>
       <c r="I11">
@@ -629,16 +798,32 @@
       <c r="A12" t="s">
         <v>8</v>
       </c>
+      <c r="B12">
+        <f>'Week 9'!C$9</f>
+        <v>0</v>
+      </c>
       <c r="C12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="D12">
+        <f>'Week 9'!E$9</f>
+        <v>0</v>
+      </c>
       <c r="E12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="F12">
+        <f>'Week 9'!G$9</f>
+        <v>0</v>
+      </c>
       <c r="G12">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f>'Week 9'!I$9</f>
         <v>0</v>
       </c>
       <c r="I12">
@@ -650,16 +835,32 @@
       <c r="A13" t="s">
         <v>9</v>
       </c>
+      <c r="B13">
+        <f>'Week 10'!C$9</f>
+        <v>0</v>
+      </c>
       <c r="C13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="D13">
+        <f>'Week 10'!E$9</f>
+        <v>0</v>
+      </c>
       <c r="E13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="F13">
+        <f>'Week 10'!G$9</f>
+        <v>0</v>
+      </c>
       <c r="G13">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f>'Week 10'!I$9</f>
         <v>0</v>
       </c>
       <c r="I13">
@@ -669,10 +870,2295 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4664E869-4EFD-D049-B01D-CBB6D687D0CE}">
+  <sheetPr codeName="Sheet11"/>
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView zoomScale="200" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2">
+        <f>Totals!B1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="str">
+        <f>Totals!B2</f>
+        <v>Name 1</v>
+      </c>
+      <c r="D2" t="str">
+        <f>Totals!D2</f>
+        <v>Name 2</v>
+      </c>
+      <c r="F2" t="str">
+        <f>Totals!F2</f>
+        <v>Name 3</v>
+      </c>
+      <c r="H2" t="str">
+        <f>Totals!H2</f>
+        <v>Name 4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4">
+        <f>B4</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4">
+        <f>D4</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4">
+        <f>F4</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4">
+        <f>H4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5">
+        <f>B5+C4</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5">
+        <f>D5+E4</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5">
+        <f>F5+G4</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5">
+        <f>H5+I4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6">
+        <f t="shared" ref="C6:I9" si="0">B6+C5</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{302849AC-C4A6-8D4B-9A02-FE599868F019}">
+  <sheetPr codeName="Sheet12"/>
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView zoomScale="200" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2">
+        <f>Totals!B1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="str">
+        <f>Totals!B2</f>
+        <v>Name 1</v>
+      </c>
+      <c r="D2" t="str">
+        <f>Totals!D2</f>
+        <v>Name 2</v>
+      </c>
+      <c r="F2" t="str">
+        <f>Totals!F2</f>
+        <v>Name 3</v>
+      </c>
+      <c r="H2" t="str">
+        <f>Totals!H2</f>
+        <v>Name 4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4">
+        <f>B4</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4">
+        <f>D4</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4">
+        <f>F4</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4">
+        <f>H4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5">
+        <f>B5+C4</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5">
+        <f>D5+E4</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5">
+        <f>F5+G4</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5">
+        <f>H5+I4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6">
+        <f t="shared" ref="C6:I9" si="0">B6+C5</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC11E001-DA2D-DB40-B076-5732B774C833}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView zoomScale="200" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2">
+        <f>Totals!B1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="str">
+        <f>Totals!B2</f>
+        <v>Name 1</v>
+      </c>
+      <c r="D2" t="str">
+        <f>Totals!D2</f>
+        <v>Name 2</v>
+      </c>
+      <c r="F2" t="str">
+        <f>Totals!F2</f>
+        <v>Name 3</v>
+      </c>
+      <c r="H2" t="str">
+        <f>Totals!H2</f>
+        <v>Name 4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4">
+        <f>B4</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4">
+        <f>D4</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4">
+        <f>F4</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4">
+        <f>H4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5">
+        <f>B5+C4</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5">
+        <f>D5+E4</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5">
+        <f>F5+G4</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5">
+        <f>H5+I4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6">
+        <f t="shared" ref="C6:I9" si="0">B6+C5</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4308AF0-1A06-034F-BAB5-7865B37F1195}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView zoomScale="200" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2">
+        <f>Totals!B1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="str">
+        <f>Totals!B2</f>
+        <v>Name 1</v>
+      </c>
+      <c r="D2" t="str">
+        <f>Totals!D2</f>
+        <v>Name 2</v>
+      </c>
+      <c r="F2" t="str">
+        <f>Totals!F2</f>
+        <v>Name 3</v>
+      </c>
+      <c r="H2" t="str">
+        <f>Totals!H2</f>
+        <v>Name 4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4">
+        <f>B4</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4">
+        <f>D4</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4">
+        <f>F4</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4">
+        <f>H4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5">
+        <f>B5+C4</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5">
+        <f>D5+E4</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5">
+        <f>F5+G4</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5">
+        <f>H5+I4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6">
+        <f t="shared" ref="C6:I9" si="0">B6+C5</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA0D11A5-335F-3F4E-B35F-D9E2B5F99B83}">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView zoomScale="200" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2">
+        <f>Totals!B1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="str">
+        <f>Totals!B2</f>
+        <v>Name 1</v>
+      </c>
+      <c r="D2" t="str">
+        <f>Totals!D2</f>
+        <v>Name 2</v>
+      </c>
+      <c r="F2" t="str">
+        <f>Totals!F2</f>
+        <v>Name 3</v>
+      </c>
+      <c r="H2" t="str">
+        <f>Totals!H2</f>
+        <v>Name 4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4">
+        <f>B4</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4">
+        <f>D4</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4">
+        <f>F4</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4">
+        <f>H4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5">
+        <f>B5+C4</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5">
+        <f>D5+E4</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5">
+        <f>F5+G4</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5">
+        <f>H5+I4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6">
+        <f t="shared" ref="C6:I9" si="0">B6+C5</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C38E3E-E40E-374A-9FD1-19FB7B86EBCE}">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView zoomScale="200" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2">
+        <f>Totals!B1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="str">
+        <f>Totals!B2</f>
+        <v>Name 1</v>
+      </c>
+      <c r="D2" t="str">
+        <f>Totals!D2</f>
+        <v>Name 2</v>
+      </c>
+      <c r="F2" t="str">
+        <f>Totals!F2</f>
+        <v>Name 3</v>
+      </c>
+      <c r="H2" t="str">
+        <f>Totals!H2</f>
+        <v>Name 4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4">
+        <f>B4</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4">
+        <f>D4</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4">
+        <f>F4</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4">
+        <f>H4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5">
+        <f>B5+C4</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5">
+        <f>D5+E4</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5">
+        <f>F5+G4</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5">
+        <f>H5+I4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6">
+        <f t="shared" ref="C6:I9" si="0">B6+C5</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3114B01-EB1E-5146-A8A1-6B16EB680B75}">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView zoomScale="200" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2">
+        <f>Totals!B1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="str">
+        <f>Totals!B2</f>
+        <v>Name 1</v>
+      </c>
+      <c r="D2" t="str">
+        <f>Totals!D2</f>
+        <v>Name 2</v>
+      </c>
+      <c r="F2" t="str">
+        <f>Totals!F2</f>
+        <v>Name 3</v>
+      </c>
+      <c r="H2" t="str">
+        <f>Totals!H2</f>
+        <v>Name 4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4">
+        <f>B4</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4">
+        <f>D4</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4">
+        <f>F4</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4">
+        <f>H4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5">
+        <f>B5+C4</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5">
+        <f>D5+E4</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5">
+        <f>F5+G4</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5">
+        <f>H5+I4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6">
+        <f t="shared" ref="C6:I9" si="0">B6+C5</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60565FAB-46A9-0B41-A1F0-D6DBCAC78957}">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView zoomScale="200" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2">
+        <f>Totals!B1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="str">
+        <f>Totals!B2</f>
+        <v>Name 1</v>
+      </c>
+      <c r="D2" t="str">
+        <f>Totals!D2</f>
+        <v>Name 2</v>
+      </c>
+      <c r="F2" t="str">
+        <f>Totals!F2</f>
+        <v>Name 3</v>
+      </c>
+      <c r="H2" t="str">
+        <f>Totals!H2</f>
+        <v>Name 4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4">
+        <f>B4</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4">
+        <f>D4</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4">
+        <f>F4</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4">
+        <f>H4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5">
+        <f>B5+C4</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5">
+        <f>D5+E4</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5">
+        <f>F5+G4</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5">
+        <f>H5+I4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6">
+        <f t="shared" ref="C6:I9" si="0">B6+C5</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E499E2B6-3917-6742-9CC8-5F507CE63656}">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView zoomScale="200" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2">
+        <f>Totals!B1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="str">
+        <f>Totals!B2</f>
+        <v>Name 1</v>
+      </c>
+      <c r="D2" t="str">
+        <f>Totals!D2</f>
+        <v>Name 2</v>
+      </c>
+      <c r="F2" t="str">
+        <f>Totals!F2</f>
+        <v>Name 3</v>
+      </c>
+      <c r="H2" t="str">
+        <f>Totals!H2</f>
+        <v>Name 4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4">
+        <f>B4</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4">
+        <f>D4</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4">
+        <f>F4</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4">
+        <f>H4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5">
+        <f>B5+C4</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5">
+        <f>D5+E4</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5">
+        <f>F5+G4</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5">
+        <f>H5+I4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6">
+        <f t="shared" ref="C6:I9" si="0">B6+C5</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED1EECEB-9AE6-B042-9577-6D8E66A878BB}">
+  <sheetPr codeName="Sheet10"/>
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView zoomScale="200" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2">
+        <f>Totals!B1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="str">
+        <f>Totals!B2</f>
+        <v>Name 1</v>
+      </c>
+      <c r="D2" t="str">
+        <f>Totals!D2</f>
+        <v>Name 2</v>
+      </c>
+      <c r="F2" t="str">
+        <f>Totals!F2</f>
+        <v>Name 3</v>
+      </c>
+      <c r="H2" t="str">
+        <f>Totals!H2</f>
+        <v>Name 4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4">
+        <f>B4</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4">
+        <f>D4</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4">
+        <f>F4</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4">
+        <f>H4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5">
+        <f>B5+C4</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5">
+        <f>D5+E4</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5">
+        <f>F5+G4</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5">
+        <f>H5+I4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6">
+        <f t="shared" ref="C6:I9" si="0">B6+C5</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>